--- a/assets/downloads/Config Maker 2025.05.07 FR by KJ.xlsx
+++ b/assets/downloads/Config Maker 2025.05.07 FR by KJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epitafr-my.sharepoint.com/personal/kevin_jamet_epita_fr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78E43F5A-E0BE-44C1-A5B5-CF4712DC0847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{163A24B1-76DE-4169-B05C-C18D378D000A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="780" windowWidth="12800" windowHeight="15160" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
+    <workbookView xWindow="60" yWindow="780" windowWidth="25480" windowHeight="15160" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG 1" sheetId="1" r:id="rId1"/>
@@ -1547,7 +1547,45 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1640,7 +1678,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -2149,6 +2187,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62663487803587337"/>
+          <c:y val="0.35524963359044759"/>
+          <c:w val="0.10730406681909484"/>
+          <c:h val="0.30168732566659323"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -8702,7 +8750,7 @@
         <v>79</v>
       </c>
       <c r="B39" s="49">
-        <f>-1*(B37-B38)</f>
+        <f>IF(B38&gt;B37,-1*(B37-B38),0)</f>
         <v>0</v>
       </c>
     </row>

--- a/assets/downloads/Config Maker 2025.05.07 FR by KJ.xlsx
+++ b/assets/downloads/Config Maker 2025.05.07 FR by KJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epitafr-my.sharepoint.com/personal/kevin_jamet_epita_fr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{163A24B1-76DE-4169-B05C-C18D378D000A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D76F26-CCF5-477A-9CB6-A3A1D546EC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="780" windowWidth="25480" windowHeight="15160" xr2:uid="{8947F335-7243-4BC9-9D88-00188AB47FC0}"/>
   </bookViews>
@@ -794,7 +794,52 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,64 +872,10 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -894,36 +885,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,6 +909,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1696,10 +1696,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.54534435088449229"/>
-          <c:y val="0.28780362573006268"/>
-          <c:w val="0.32870046274682452"/>
-          <c:h val="0.50200578381571614"/>
+          <c:x val="0.54842024205004714"/>
+          <c:y val="0.13100656609073771"/>
+          <c:w val="0.39636921296618655"/>
+          <c:h val="0.73822771588989178"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2191,10 +2191,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.62663487803587337"/>
-          <c:y val="0.35524963359044759"/>
-          <c:w val="0.10730406681909484"/>
-          <c:h val="0.30168732566659323"/>
+          <c:x val="0.55442648241199344"/>
+          <c:y val="0.21438734008796204"/>
+          <c:w val="0.39306520680358653"/>
+          <c:h val="0.56233353764920091"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2674,10 +2674,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.62872694065873336"/>
-          <c:y val="0.35618137224310031"/>
-          <c:w val="0.16365316081768699"/>
-          <c:h val="0.30280369358746179"/>
+          <c:x val="0.61029221515599641"/>
+          <c:y val="0.30469713355025552"/>
+          <c:w val="0.23739192756765584"/>
+          <c:h val="0.38457284640689254"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -8065,7 +8065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF3D32E-9FFB-480D-9074-7649C0A05B73}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -8082,30 +8082,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59">
         <v>45784</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -8345,16 +8345,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -8510,17 +8510,17 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -8651,18 +8651,18 @@
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="F33" s="66" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="F33" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="68"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
     </row>
     <row r="34" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
@@ -8672,17 +8672,17 @@
         <f>SUM(H4:H13)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="65">
         <f>B37-B38</f>
         <v>0</v>
       </c>
-      <c r="D34" s="64"/>
+      <c r="D34" s="65"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="61" t="s">
+      <c r="G34" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
     </row>
     <row r="35" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -8692,14 +8692,14 @@
         <f>SUM(H17:H22)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="61" t="s">
+      <c r="G35" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
     </row>
     <row r="36" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
@@ -8709,14 +8709,14 @@
         <f>SUM(H26:H28)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
     </row>
     <row r="37" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -8726,14 +8726,14 @@
         <f>B34+B35+B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="62"/>
-      <c r="I37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
     </row>
     <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
@@ -8742,8 +8742,8 @@
       <c r="B38" s="43">
         <v>0</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
     </row>
     <row r="39" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="48" t="s">
@@ -8768,32 +8768,32 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54" t="s">
+      <c r="D45" s="68"/>
+      <c r="E45" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="55"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="70"/>
       <c r="H45" s="44" t="s">
         <v>77</v>
       </c>
@@ -8809,20 +8809,20 @@
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="C46" s="58">
-        <v>0</v>
-      </c>
-      <c r="D46" s="59">
+      <c r="C46" s="73">
+        <v>0</v>
+      </c>
+      <c r="D46" s="74">
         <v>1</v>
       </c>
-      <c r="E46" s="60">
-        <v>0</v>
-      </c>
-      <c r="F46" s="60">
+      <c r="E46" s="75">
+        <v>0</v>
+      </c>
+      <c r="F46" s="75">
         <f t="shared" ref="F46:F48" si="4">F34</f>
         <v>0</v>
       </c>
-      <c r="G46" s="56"/>
+      <c r="G46" s="71"/>
       <c r="H46" s="47" t="e">
         <f>100-(I46*100/B46)</f>
         <v>#DIV/0!</v>
@@ -8840,20 +8840,20 @@
         <f>B35</f>
         <v>0</v>
       </c>
-      <c r="C47" s="58">
-        <v>0</v>
-      </c>
-      <c r="D47" s="59">
+      <c r="C47" s="73">
+        <v>0</v>
+      </c>
+      <c r="D47" s="74">
         <v>1</v>
       </c>
-      <c r="E47" s="60">
-        <v>0</v>
-      </c>
-      <c r="F47" s="60">
+      <c r="E47" s="75">
+        <v>0</v>
+      </c>
+      <c r="F47" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G47" s="56"/>
+      <c r="G47" s="71"/>
       <c r="H47" s="47" t="e">
         <f t="shared" ref="H47:H48" si="5">100-(I47*100/B47)</f>
         <v>#DIV/0!</v>
@@ -8871,20 +8871,20 @@
         <f>B36</f>
         <v>0</v>
       </c>
-      <c r="C48" s="58">
-        <v>0</v>
-      </c>
-      <c r="D48" s="59">
+      <c r="C48" s="73">
+        <v>0</v>
+      </c>
+      <c r="D48" s="74">
         <v>1</v>
       </c>
-      <c r="E48" s="60">
-        <v>0</v>
-      </c>
-      <c r="F48" s="60">
+      <c r="E48" s="75">
+        <v>0</v>
+      </c>
+      <c r="F48" s="75">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G48" s="57"/>
+      <c r="G48" s="72"/>
       <c r="H48" s="47" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -8895,42 +8895,30 @@
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="51">
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="66">
         <f>I46+I47+I48</f>
         <v>0</v>
       </c>
-      <c r="I49" s="51"/>
+      <c r="I49" s="66"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="C34:D38"/>
     <mergeCell ref="C49:G50"/>
     <mergeCell ref="H49:I50"/>
     <mergeCell ref="A44:I44"/>
@@ -8943,6 +8931,18 @@
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C34:D38"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <conditionalFormatting sqref="B37">
     <cfRule type="cellIs" dxfId="17" priority="12" operator="lessThan">
@@ -9071,30 +9071,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59">
         <v>45491</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -9121,15 +9121,15 @@
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="88" t="s">
+      <c r="K3" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
@@ -9151,13 +9151,13 @@
         <f>(E4*F4)+G4</f>
         <v>147.92999999999998</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
@@ -9179,15 +9179,15 @@
         <f t="shared" ref="H5:H13" si="0">(E5*F5)+G5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="17"/>
@@ -9209,15 +9209,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="90" t="s">
+      <c r="K6" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
@@ -9239,15 +9239,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="91" t="s">
+      <c r="K7" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="17"/>
@@ -9269,15 +9269,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="92" t="s">
+      <c r="K8" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -9299,15 +9299,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="93" t="s">
+      <c r="K9" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="17"/>
@@ -9329,15 +9329,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="101" t="s">
+      <c r="K10" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
@@ -9359,15 +9359,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="76" t="s">
+      <c r="K11" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
@@ -9412,16 +9412,16 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -9471,14 +9471,14 @@
         <v>0</v>
       </c>
       <c r="K17" s="16"/>
-      <c r="L17" s="77" t="s">
+      <c r="L17" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
@@ -9500,14 +9500,14 @@
         <v>0</v>
       </c>
       <c r="K18" s="22"/>
-      <c r="L18" s="77" t="s">
+      <c r="L18" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
@@ -9593,26 +9593,26 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="K24" s="94" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="K24" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -9642,15 +9642,15 @@
       <c r="I25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="95" t="s">
+      <c r="K25" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="97"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="84"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="17"/>
@@ -9676,15 +9676,15 @@
         <f>H26-H4</f>
         <v>-147.92999999999998</v>
       </c>
-      <c r="K26" s="98" t="s">
+      <c r="K26" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="100"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="87"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="17"/>
@@ -9710,15 +9710,15 @@
         <f t="shared" ref="I27:I30" si="2">H27-0</f>
         <v>0</v>
       </c>
-      <c r="K27" s="81" t="s">
+      <c r="K27" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="83"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="80"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="17"/>
@@ -9744,15 +9744,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="81" t="s">
+      <c r="K28" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="83"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="80"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="17"/>
@@ -9778,15 +9778,15 @@
         <f>H29-0</f>
         <v>0</v>
       </c>
-      <c r="K29" s="81" t="s">
+      <c r="K29" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="83"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="80"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="17"/>
@@ -9812,55 +9812,55 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="81" t="s">
+      <c r="K30" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="83"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="80"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C31" s="4"/>
       <c r="I31" s="5"/>
-      <c r="K31" s="84" t="s">
+      <c r="K31" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="86"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="101"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C32" s="4"/>
       <c r="I32" s="5"/>
-      <c r="K32" s="78" t="s">
+      <c r="K32" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="80"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="98"/>
     </row>
     <row r="33" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="F33" s="66" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="F33" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="68"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="53"/>
     </row>
     <row r="34" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
@@ -9869,14 +9869,14 @@
       <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="61" t="s">
+      <c r="G34" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="64"/>
     </row>
     <row r="35" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -9885,14 +9885,14 @@
       <c r="B35" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="61" t="s">
+      <c r="G35" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
     </row>
     <row r="36" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
@@ -9901,14 +9901,14 @@
       <c r="B36" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
     </row>
     <row r="37" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -9917,14 +9917,14 @@
       <c r="B37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="62"/>
-      <c r="I37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
     </row>
     <row r="38" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
@@ -9933,8 +9933,8 @@
       <c r="B38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
     </row>
     <row r="39" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -9952,6 +9952,29 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="C34:D38"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
     <mergeCell ref="K8:Q8"/>
     <mergeCell ref="K9:Q9"/>
     <mergeCell ref="K27:Q27"/>
@@ -9961,29 +9984,6 @@
     <mergeCell ref="K25:Q25"/>
     <mergeCell ref="K26:Q26"/>
     <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K3:Q3"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="C34:D38"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C40" r:id="rId1" xr:uid="{DEFCB1FC-5A4C-4669-B8BE-6F0E263F6A35}"/>
